--- a/data process.xlsx
+++ b/data process.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
   <si>
     <t>Impact velocity</t>
   </si>
@@ -31,6 +31,33 @@
   </si>
   <si>
     <t>core thickness</t>
+  </si>
+  <si>
+    <t>Sensitive Analyse</t>
+  </si>
+  <si>
+    <t>Window</t>
+  </si>
+  <si>
+    <t>mesh convergence</t>
+  </si>
+  <si>
+    <t>velosity</t>
+  </si>
+  <si>
+    <t>Core thickness</t>
+  </si>
+  <si>
+    <t>Ballistic Limit</t>
+  </si>
+  <si>
+    <t>60 m/s</t>
+  </si>
+  <si>
+    <t>font face</t>
+  </si>
+  <si>
+    <t>Thickness of Front Face-sheet</t>
   </si>
 </sst>
 </file>
@@ -54,10 +81,36 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -66,11 +119,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -106,10 +164,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.12026843949895484"/>
-          <c:y val="0.15160476752642452"/>
-          <c:w val="0.82489467259706306"/>
-          <c:h val="0.68305028853519667"/>
+          <c:x val="0.134390099047838"/>
+          <c:y val="0.17838913825345989"/>
+          <c:w val="0.79185776960361698"/>
+          <c:h val="0.64217058755138956"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -165,9 +223,6 @@
                 <c:pt idx="10">
                   <c:v>600</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>700</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -209,9 +264,6 @@
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>400</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>550</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -226,11 +278,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="92385280"/>
-        <c:axId val="92386816"/>
+        <c:axId val="213244544"/>
+        <c:axId val="213250432"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="92385280"/>
+        <c:axId val="213244544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -240,12 +292,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92386816"/>
+        <c:crossAx val="213250432"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="92386816"/>
+        <c:axId val="213250432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -256,7 +308,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="92385280"/>
+        <c:crossAx val="213244544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -267,10 +319,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.71484124968249929"/>
-          <c:y val="0.73025096023720015"/>
-          <c:w val="0.17145097790195579"/>
-          <c:h val="7.6663081425043411E-2"/>
+          <c:x val="0.72037454259823364"/>
+          <c:y val="0.75004145470763472"/>
+          <c:w val="0.15518193673619876"/>
+          <c:h val="7.0601874268512346E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -309,9 +361,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.12574269000321125"/>
-          <c:y val="0.14090546988335723"/>
-          <c:w val="0.81307402463252521"/>
-          <c:h val="0.67496129021608153"/>
+          <c:y val="0.14090562816965485"/>
+          <c:w val="0.82465597872372221"/>
+          <c:h val="0.68315392140438691"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -321,15 +373,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$A$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Impact velocity</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
+            <c:v>Simulation</c:v>
           </c:tx>
           <c:marker>
             <c:symbol val="none"/>
@@ -404,14 +448,14 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="102650624"/>
-        <c:axId val="102652544"/>
+        <c:axId val="215977984"/>
+        <c:axId val="215979904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="102650624"/>
+        <c:axId val="215977984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="800"/>
+          <c:max val="700"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -439,15 +483,15 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102652544"/>
+        <c:crossAx val="215979904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="102652544"/>
+        <c:axId val="215979904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="600"/>
+          <c:max val="450"/>
           <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -480,7 +524,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102650624"/>
+        <c:crossAx val="215977984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -501,8 +545,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.67943815767062987"/>
-          <c:y val="0.62543567038145786"/>
+          <c:x val="0.68955838774422651"/>
+          <c:y val="0.66247280954187826"/>
           <c:w val="0.24061635766004211"/>
           <c:h val="7.5819343336799877E-2"/>
         </c:manualLayout>
@@ -617,11 +661,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="102676736"/>
-        <c:axId val="102687104"/>
+        <c:axId val="216418176"/>
+        <c:axId val="216420352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="102676736"/>
+        <c:axId val="216418176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20000"/>
@@ -652,12 +696,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102687104"/>
+        <c:crossAx val="216420352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="102687104"/>
+        <c:axId val="216420352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -689,7 +733,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="102676736"/>
+        <c:crossAx val="216418176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -811,11 +855,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="104486400"/>
-        <c:axId val="104488320"/>
+        <c:axId val="216450176"/>
+        <c:axId val="216452096"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="104486400"/>
+        <c:axId val="216450176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -844,12 +888,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104488320"/>
+        <c:crossAx val="216452096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104488320"/>
+        <c:axId val="216452096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -884,7 +928,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104486400"/>
+        <c:crossAx val="216450176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -931,22 +975,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>5690</c:v>
+                  <c:v>9655</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8840</c:v>
+                  <c:v>13796</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>11231</c:v>
+                  <c:v>17382</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>22580</c:v>
+                  <c:v>19634</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>30560</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>40281</c:v>
+                  <c:v>24352</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -958,22 +999,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>220</c:v>
+                  <c:v>200</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>200</c:v>
+                  <c:v>188</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>194</c:v>
+                  <c:v>176</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>192</c:v>
+                  <c:v>171</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>190</c:v>
+                  <c:v>170</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -988,11 +1026,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="104496512"/>
-        <c:axId val="104519168"/>
+        <c:axId val="216464384"/>
+        <c:axId val="216487040"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="104496512"/>
+        <c:axId val="216464384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1021,12 +1059,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104519168"/>
+        <c:crossAx val="216487040"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="104519168"/>
+        <c:axId val="216487040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1056,7 +1094,298 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="104496512"/>
+        <c:crossAx val="216464384"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-AU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$Q$52:$Q$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>300</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$R$52:$R$54</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>230</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="188271616"/>
+        <c:axId val="188270080"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="188271616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="188270080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="188270080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="188271616"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-AU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$64:$A$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$64:$B$70</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="202412416"/>
+        <c:axId val="202410624"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="202412416"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+          <c:max val="30"/>
+          <c:min val="5"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Core Thickness (mm)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="202410624"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="202410624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="65"/>
+          <c:min val="40"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Ballistic Limit (m/s)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="202412416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1077,16 +1406,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>100011</xdr:rowOff>
+      <xdr:rowOff>100010</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1108,15 +1437,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>419101</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1220,6 +1549,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>123825</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>147637</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1515,15 +1904,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:X78"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.85546875" customWidth="1"/>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1693,14 +2082,6 @@
         <v>400</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>700</v>
-      </c>
-      <c r="B27">
-        <v>550</v>
-      </c>
-    </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="P31" t="s">
         <v>3</v>
@@ -1717,10 +2098,10 @@
         <v>1</v>
       </c>
       <c r="P32">
-        <v>5690</v>
+        <v>9655</v>
       </c>
       <c r="Q32">
-        <v>220</v>
+        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.25">
@@ -1731,10 +2112,10 @@
         <v>220</v>
       </c>
       <c r="P33">
-        <v>8840</v>
+        <v>13796</v>
       </c>
       <c r="Q33">
-        <v>200</v>
+        <v>188</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.25">
@@ -1745,10 +2126,10 @@
         <v>155</v>
       </c>
       <c r="P34">
-        <v>11231</v>
+        <v>17382</v>
       </c>
       <c r="Q34">
-        <v>194</v>
+        <v>176</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.25">
@@ -1759,10 +2140,10 @@
         <v>145</v>
       </c>
       <c r="P35">
-        <v>22580</v>
+        <v>19634</v>
       </c>
       <c r="Q35">
-        <v>192</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.25">
@@ -1773,10 +2154,10 @@
         <v>142</v>
       </c>
       <c r="P36">
-        <v>30560</v>
+        <v>24352</v>
       </c>
       <c r="Q36">
-        <v>191</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.25">
@@ -1786,12 +2167,6 @@
       <c r="B37">
         <v>140</v>
       </c>
-      <c r="P37">
-        <v>40281</v>
-      </c>
-      <c r="Q37">
-        <v>190</v>
-      </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
@@ -1809,7 +2184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>25</v>
       </c>
@@ -1817,7 +2192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>20</v>
       </c>
@@ -1825,7 +2200,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>15</v>
       </c>
@@ -1833,31 +2208,49 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>12</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q52">
+        <v>300</v>
+      </c>
+      <c r="R52">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="53" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>10</v>
       </c>
       <c r="B53">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q53">
+        <v>100</v>
+      </c>
+      <c r="R53">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>8</v>
       </c>
       <c r="B54">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="Q54">
+        <v>80</v>
+      </c>
+      <c r="R54">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>5</v>
       </c>
@@ -1865,7 +2258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2</v>
       </c>
@@ -1873,9 +2266,214 @@
         <v>15</v>
       </c>
     </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B61" s="1"/>
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+      <c r="F61" s="1"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>5</v>
+      </c>
+      <c r="F62" t="s">
+        <v>7</v>
+      </c>
+      <c r="H62" t="s">
+        <v>8</v>
+      </c>
+      <c r="I62">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>9</v>
+      </c>
+      <c r="B63" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" t="s">
+        <v>3</v>
+      </c>
+      <c r="H63" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="F64">
+        <v>13796</v>
+      </c>
+      <c r="H64">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="65" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>30</v>
+      </c>
+      <c r="B65">
+        <v>60</v>
+      </c>
+      <c r="F65">
+        <v>17382</v>
+      </c>
+      <c r="H65">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="66" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>20</v>
+      </c>
+      <c r="B66">
+        <v>58</v>
+      </c>
+      <c r="F66">
+        <v>19634</v>
+      </c>
+      <c r="H66">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="67" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>15</v>
+      </c>
+      <c r="B67">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>10</v>
+      </c>
+      <c r="B68">
+        <v>56</v>
+      </c>
+      <c r="S68" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="T68" s="1"/>
+      <c r="W68" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="X68" s="2"/>
+    </row>
+    <row r="69" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>5</v>
+      </c>
+      <c r="B69">
+        <v>56</v>
+      </c>
+      <c r="S69">
+        <v>25</v>
+      </c>
+      <c r="T69">
+        <v>19.8</v>
+      </c>
+      <c r="U69">
+        <v>10</v>
+      </c>
+      <c r="W69" s="3">
+        <v>3</v>
+      </c>
+      <c r="X69" s="3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="S70">
+        <v>5</v>
+      </c>
+      <c r="T70">
+        <v>21.6</v>
+      </c>
+      <c r="U70">
+        <v>7</v>
+      </c>
+      <c r="W70" s="3">
+        <v>2.5</v>
+      </c>
+      <c r="X70" s="3">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W71" s="3">
+        <v>2</v>
+      </c>
+      <c r="X71" s="3"/>
+    </row>
+    <row r="72" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>13</v>
+      </c>
+      <c r="B72" t="s">
+        <v>10</v>
+      </c>
+      <c r="W72" s="3">
+        <v>1.5</v>
+      </c>
+      <c r="X72" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="73" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>3</v>
+      </c>
+      <c r="B73">
+        <v>60</v>
+      </c>
+      <c r="W73" s="3"/>
+      <c r="X73" s="3"/>
+    </row>
+    <row r="74" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2.5</v>
+      </c>
+      <c r="B74">
+        <v>56</v>
+      </c>
+      <c r="W74" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1.5</v>
+      </c>
+      <c r="B76">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="77" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="4">
     <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A61:F61"/>
+    <mergeCell ref="S68:T68"/>
+    <mergeCell ref="W68:X68"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/data process.xlsx
+++ b/data process.xlsx
@@ -121,14 +121,14 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -278,11 +278,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="213244544"/>
-        <c:axId val="213250432"/>
+        <c:axId val="217590400"/>
+        <c:axId val="217596288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="213244544"/>
+        <c:axId val="217590400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -292,12 +292,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213250432"/>
+        <c:crossAx val="217596288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="213250432"/>
+        <c:axId val="217596288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -308,7 +308,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="213244544"/>
+        <c:crossAx val="217590400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -448,11 +448,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="215977984"/>
-        <c:axId val="215979904"/>
+        <c:axId val="217636864"/>
+        <c:axId val="217638784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="215977984"/>
+        <c:axId val="217636864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="700"/>
@@ -476,19 +476,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215979904"/>
+        <c:crossAx val="217638784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="215979904"/>
+        <c:axId val="217638784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="450"/>
@@ -517,14 +516,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="215977984"/>
+        <c:crossAx val="217636864"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -661,11 +659,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="216418176"/>
-        <c:axId val="216420352"/>
+        <c:axId val="217536384"/>
+        <c:axId val="217538560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="216418176"/>
+        <c:axId val="217536384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20000"/>
@@ -689,19 +687,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216420352"/>
+        <c:crossAx val="217538560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="216420352"/>
+        <c:axId val="217538560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -726,14 +723,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216418176"/>
+        <c:crossAx val="217536384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -855,11 +851,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="216450176"/>
-        <c:axId val="216452096"/>
+        <c:axId val="217568384"/>
+        <c:axId val="217570304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="216450176"/>
+        <c:axId val="217568384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -888,12 +884,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216452096"/>
+        <c:crossAx val="217570304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="216452096"/>
+        <c:axId val="217570304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -928,7 +924,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216450176"/>
+        <c:crossAx val="217568384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1026,11 +1022,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="216464384"/>
-        <c:axId val="216487040"/>
+        <c:axId val="217910272"/>
+        <c:axId val="217932928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="216464384"/>
+        <c:axId val="217910272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1052,19 +1048,18 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216487040"/>
+        <c:crossAx val="217932928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="216487040"/>
+        <c:axId val="217932928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1087,14 +1082,13 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="216464384"/>
+        <c:crossAx val="217910272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1180,11 +1174,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="188271616"/>
-        <c:axId val="188270080"/>
+        <c:axId val="217940736"/>
+        <c:axId val="217942272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="188271616"/>
+        <c:axId val="217940736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1194,12 +1188,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188270080"/>
+        <c:crossAx val="217942272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="188270080"/>
+        <c:axId val="217942272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1210,7 +1204,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="188271616"/>
+        <c:crossAx val="217940736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1313,11 +1307,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="202412416"/>
-        <c:axId val="202410624"/>
+        <c:axId val="217970560"/>
+        <c:axId val="218169344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="202412416"/>
+        <c:axId val="217970560"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="30"/>
@@ -1348,12 +1342,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202410624"/>
+        <c:crossAx val="218169344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="202410624"/>
+        <c:axId val="218169344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="65"/>
@@ -1385,7 +1379,201 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="202412416"/>
+        <c:crossAx val="217970560"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-AU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.8145888013998252E-2"/>
+          <c:y val="5.1400554097404488E-2"/>
+          <c:w val="0.83485170603674541"/>
+          <c:h val="0.74833697871099447"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$73:$A$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$73:$B$78</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>49</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="46844544"/>
+        <c:axId val="46843008"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="46844544"/>
+        <c:scaling>
+          <c:orientation val="maxMin"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Thickness of Front</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> Face-sheet (mm)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="46843008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="46843008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="65"/>
+          <c:min val="30"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-AU"/>
+                  <a:t>Ballistic Limit</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-AU" baseline="0"/>
+                  <a:t> (m/s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-AU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="46844544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1609,6 +1797,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>71437</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1981,10 +2199,10 @@
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="1"/>
+      <c r="B14" s="3"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -2267,14 +2485,14 @@
       </c>
     </row>
     <row r="61" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1"/>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-      <c r="F61" s="1"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+      <c r="E61" s="3"/>
+      <c r="F61" s="3"/>
     </row>
     <row r="62" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
@@ -2355,14 +2573,14 @@
       <c r="B68">
         <v>56</v>
       </c>
-      <c r="S68" s="1" t="s">
+      <c r="S68" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="T68" s="1"/>
-      <c r="W68" s="2" t="s">
+      <c r="T68" s="3"/>
+      <c r="W68" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="X68" s="2"/>
+      <c r="X68" s="4"/>
     </row>
     <row r="69" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A69">
@@ -2380,10 +2598,10 @@
       <c r="U69">
         <v>10</v>
       </c>
-      <c r="W69" s="3">
+      <c r="W69" s="1">
         <v>3</v>
       </c>
-      <c r="X69" s="3">
+      <c r="X69" s="1">
         <v>10</v>
       </c>
     </row>
@@ -2397,18 +2615,18 @@
       <c r="U70">
         <v>7</v>
       </c>
-      <c r="W70" s="3">
+      <c r="W70" s="1">
         <v>2.5</v>
       </c>
-      <c r="X70" s="3">
+      <c r="X70" s="1">
         <v>17</v>
       </c>
     </row>
     <row r="71" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="W71" s="3">
+      <c r="W71" s="1">
         <v>2</v>
       </c>
-      <c r="X71" s="3"/>
+      <c r="X71" s="1"/>
     </row>
     <row r="72" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
@@ -2417,10 +2635,10 @@
       <c r="B72" t="s">
         <v>10</v>
       </c>
-      <c r="W72" s="3">
+      <c r="W72" s="1">
         <v>1.5</v>
       </c>
-      <c r="X72" s="3">
+      <c r="X72" s="1">
         <v>24</v>
       </c>
     </row>
@@ -2431,8 +2649,8 @@
       <c r="B73">
         <v>60</v>
       </c>
-      <c r="W73" s="3"/>
-      <c r="X73" s="3"/>
+      <c r="W73" s="1"/>
+      <c r="X73" s="1"/>
     </row>
     <row r="74" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A74">
@@ -2441,14 +2659,20 @@
       <c r="B74">
         <v>56</v>
       </c>
-      <c r="W74" s="4">
+      <c r="W74" s="2">
         <v>0.5</v>
+      </c>
+      <c r="X74" s="2">
+        <v>31</v>
       </c>
     </row>
     <row r="75" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2</v>
       </c>
+      <c r="B75">
+        <v>54</v>
+      </c>
     </row>
     <row r="76" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A76">
@@ -2462,10 +2686,16 @@
       <c r="A77">
         <v>1</v>
       </c>
+      <c r="B77">
+        <v>51</v>
+      </c>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>0.5</v>
+      </c>
+      <c r="B78">
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/data process.xlsx
+++ b/data process.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="27">
   <si>
     <t>Impact velocity</t>
   </si>
@@ -58,6 +58,45 @@
   </si>
   <si>
     <t>Thickness of Front Face-sheet</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E-glass/polyester </t>
+  </si>
+  <si>
+    <t>PVC foam</t>
+  </si>
+  <si>
+    <t>1 m/s</t>
+  </si>
+  <si>
+    <t>0.22 mm</t>
+  </si>
+  <si>
+    <t>5 mm</t>
+  </si>
+  <si>
+    <t>0.44*10e-3</t>
+  </si>
+  <si>
+    <t>Thickness to decrease 1m/s</t>
+  </si>
+  <si>
+    <t>Density kg/m</t>
+  </si>
+  <si>
+    <t>Volume m</t>
+  </si>
+  <si>
+    <t>mass kg</t>
+  </si>
+  <si>
+    <t>100m/s</t>
+  </si>
+  <si>
+    <t>back face</t>
+  </si>
+  <si>
+    <t>Thickness of Back Face-sheet</t>
   </si>
 </sst>
 </file>
@@ -278,11 +317,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="217590400"/>
-        <c:axId val="217596288"/>
+        <c:axId val="189848192"/>
+        <c:axId val="189854080"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="217590400"/>
+        <c:axId val="189848192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -292,12 +331,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217596288"/>
+        <c:crossAx val="189854080"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="217596288"/>
+        <c:axId val="189854080"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -308,7 +347,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217590400"/>
+        <c:crossAx val="189848192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -448,11 +487,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="217636864"/>
-        <c:axId val="217638784"/>
+        <c:axId val="191270912"/>
+        <c:axId val="191272832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="217636864"/>
+        <c:axId val="191270912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="700"/>
@@ -476,18 +515,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217638784"/>
+        <c:crossAx val="191272832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="217638784"/>
+        <c:axId val="191272832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="450"/>
@@ -516,13 +556,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217636864"/>
+        <c:crossAx val="191270912"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -659,11 +700,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="217536384"/>
-        <c:axId val="217538560"/>
+        <c:axId val="191383424"/>
+        <c:axId val="191385600"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="217536384"/>
+        <c:axId val="191383424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="20000"/>
@@ -687,18 +728,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217538560"/>
+        <c:crossAx val="191385600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="217538560"/>
+        <c:axId val="191385600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="250"/>
@@ -723,13 +765,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217536384"/>
+        <c:crossAx val="191383424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -851,11 +894,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="217568384"/>
-        <c:axId val="217570304"/>
+        <c:axId val="191415424"/>
+        <c:axId val="191417344"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="217568384"/>
+        <c:axId val="191415424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -884,12 +927,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217570304"/>
+        <c:crossAx val="191417344"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="217570304"/>
+        <c:axId val="191417344"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -924,7 +967,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217568384"/>
+        <c:crossAx val="191415424"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1022,11 +1065,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="217910272"/>
-        <c:axId val="217932928"/>
+        <c:axId val="191429632"/>
+        <c:axId val="191452288"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="217910272"/>
+        <c:axId val="191429632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1048,18 +1091,19 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217932928"/>
+        <c:crossAx val="191452288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="217932928"/>
+        <c:axId val="191452288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1082,13 +1126,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217910272"/>
+        <c:crossAx val="191429632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1174,11 +1219,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="217940736"/>
-        <c:axId val="217942272"/>
+        <c:axId val="191458304"/>
+        <c:axId val="191464192"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="217940736"/>
+        <c:axId val="191458304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1188,12 +1233,12 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217942272"/>
+        <c:crossAx val="191464192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="217942272"/>
+        <c:axId val="191464192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1204,7 +1249,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217940736"/>
+        <c:crossAx val="191458304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1307,11 +1352,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="217970560"/>
-        <c:axId val="218169344"/>
+        <c:axId val="191492480"/>
+        <c:axId val="191494400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="217970560"/>
+        <c:axId val="191492480"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
           <c:max val="30"/>
@@ -1342,12 +1387,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="218169344"/>
+        <c:crossAx val="191494400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="218169344"/>
+        <c:axId val="191494400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="65"/>
@@ -1379,7 +1424,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="217970560"/>
+        <c:crossAx val="191492480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1466,7 +1511,7 @@
                   <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>56</c:v>
+                  <c:v>56.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>54</c:v>
@@ -1475,10 +1520,10 @@
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>51</c:v>
+                  <c:v>50.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1493,11 +1538,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="46844544"/>
-        <c:axId val="46843008"/>
+        <c:axId val="192972288"/>
+        <c:axId val="192974208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="46844544"/>
+        <c:axId val="192972288"/>
         <c:scaling>
           <c:orientation val="maxMin"/>
         </c:scaling>
@@ -1531,12 +1576,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46843008"/>
+        <c:crossAx val="192974208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="46843008"/>
+        <c:axId val="192974208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="65"/>
@@ -1573,7 +1618,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="46844544"/>
+        <c:crossAx val="192972288"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2122,10 +2167,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X78"/>
+  <dimension ref="A1:X105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B78" sqref="B78"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O8" sqref="O8:P15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2134,7 +2179,7 @@
     <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2142,7 +2187,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>200</v>
       </c>
@@ -2150,7 +2195,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>300</v>
       </c>
@@ -2158,7 +2203,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>320</v>
       </c>
@@ -2166,7 +2211,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>360</v>
       </c>
@@ -2174,7 +2219,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>400</v>
       </c>
@@ -2182,7 +2227,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>500</v>
       </c>
@@ -2190,113 +2235,171 @@
         <v>310</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>600</v>
       </c>
       <c r="B8">
         <v>400</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="O8" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O9" s="1">
+        <v>200</v>
+      </c>
+      <c r="P9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O10" s="1">
+        <v>300</v>
+      </c>
+      <c r="P10" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O11" s="1">
+        <v>320</v>
+      </c>
+      <c r="P11" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O12" s="1">
+        <v>360</v>
+      </c>
+      <c r="P12" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="O13" s="1">
+        <v>400</v>
+      </c>
+      <c r="P13" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="O14" s="1">
+        <v>500</v>
+      </c>
+      <c r="P14" s="1">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="O15" s="1">
+        <v>600</v>
+      </c>
+      <c r="P15" s="1">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>80</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="1">
         <v>180</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="1">
         <v>220</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="1">
         <v>300</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="1">
         <v>330</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="1">
         <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="1">
         <v>350</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="1">
         <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="1">
         <v>380</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="1">
         <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="1">
         <v>390</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="1">
         <v>130</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="1">
         <v>400</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="1">
         <v>210</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="1">
         <v>550</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="1">
         <v>380</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="1">
         <v>600</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="1">
         <v>400</v>
       </c>
     </row>
@@ -2657,7 +2760,7 @@
         <v>2.5</v>
       </c>
       <c r="B74">
-        <v>56</v>
+        <v>56.5</v>
       </c>
       <c r="W74" s="2">
         <v>0.5</v>
@@ -2681,13 +2784,27 @@
       <c r="B76">
         <v>52</v>
       </c>
+      <c r="S76" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="T76" s="3"/>
+      <c r="W76" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="X76" s="3"/>
     </row>
     <row r="77" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1</v>
       </c>
       <c r="B77">
-        <v>51</v>
+        <v>50.5</v>
+      </c>
+      <c r="W77">
+        <v>3</v>
+      </c>
+      <c r="X77">
+        <v>27</v>
       </c>
     </row>
     <row r="78" spans="1:24" x14ac:dyDescent="0.25">
@@ -2695,18 +2812,211 @@
         <v>0.5</v>
       </c>
       <c r="B78">
+        <v>47</v>
+      </c>
+      <c r="W78">
+        <v>2.5</v>
+      </c>
+      <c r="X78">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="79" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W79">
+        <v>2</v>
+      </c>
+      <c r="X79">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="W80">
+        <v>1.5</v>
+      </c>
+      <c r="X80">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="W82">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>26</v>
+      </c>
+      <c r="B86" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>3</v>
+      </c>
+      <c r="B87">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>2.5</v>
+      </c>
+      <c r="B88">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>2</v>
+      </c>
+      <c r="B89">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1.5</v>
+      </c>
+      <c r="B90">
+        <v>77</v>
+      </c>
+      <c r="L90" t="s">
+        <v>13</v>
+      </c>
+      <c r="M90" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1</v>
+      </c>
+      <c r="L91">
+        <v>3</v>
+      </c>
+      <c r="M91">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>0.5</v>
+      </c>
+      <c r="L92">
+        <v>2.5</v>
+      </c>
+      <c r="M92">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L93">
+        <v>2</v>
+      </c>
+      <c r="M93">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L94">
+        <v>1.5</v>
+      </c>
+      <c r="M94">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L95">
+        <v>1</v>
+      </c>
+      <c r="M95">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="L96">
+        <v>0.5</v>
+      </c>
+      <c r="M96">
         <v>49</v>
       </c>
     </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="B101" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B102" s="1">
+        <v>1800</v>
+      </c>
+      <c r="C102" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C104" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B105" s="1">
+        <v>0.79200000000000004</v>
+      </c>
+      <c r="C105" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="6">
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A61:F61"/>
     <mergeCell ref="S68:T68"/>
     <mergeCell ref="W68:X68"/>
+    <mergeCell ref="S76:T76"/>
+    <mergeCell ref="W76:X76"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
